--- a/biology/Zoologie/Bhawania_goodei/Bhawania_goodei.xlsx
+++ b/biology/Zoologie/Bhawania_goodei/Bhawania_goodei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bhawania goodei est une espèce de vers marins polychètes de la famille des Chrysopetalidae (ordre des Phyllodocida).
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Bhawania goodei a été décrite en 1884 par le zoologiste américain, spécialiste des annélides Harrison Edwin Webster (d) (1841-1906)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Bhawania goodei a été décrite en 1884 par le zoologiste américain, spécialiste des annélides Harrison Edwin Webster (d) (1841-1906),.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce se rencontre dans les océans Indien et Pacifique, dans Atlantique centre ouest et en mer Méditerranée[3]. Elle se rencontre aux profondeurs comprises entre 0 et 23 m[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se rencontre dans les océans Indien et Pacifique, dans Atlantique centre ouest et en mer Méditerranée. Elle se rencontre aux profondeurs comprises entre 0 et 23 m.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le plus grand spécimen en possession de Webster lors de sa publication de 1884 mesurait 50 mm de long pour 3 mm de large[2]. Mais la plupart des autres spécimens mesuraient seulement 10 mm avec une largeur équivalente à celle du plus grand[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le plus grand spécimen en possession de Webster lors de sa publication de 1884 mesurait 50 mm de long pour 3 mm de large. Mais la plupart des autres spécimens mesuraient seulement 10 mm avec une largeur équivalente à celle du plus grand.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, goodei, lui a été donnée en l'honneur de l'ichtyologiste américain George Brown Goode (1851-1896) qui a collecté les spécimens analysés[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, goodei, lui a été donnée en l'honneur de l'ichtyologiste américain George Brown Goode (1851-1896) qui a collecté les spécimens analysés.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Professor H. E. Webster, « Annelida from Bermuda, collected by G. Brown Goode », Bulletin - United States National Museum, Washington, vol. 25,‎ 1884, p. 305-327 (ISSN 0362-9236, OCLC 1284235, BNF 37329489, lire en ligne)</t>
         </is>
